--- a/va_facility_data_2025-02-20/Benjamin Charles Steele VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Benjamin%20Charles%20Steele%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Benjamin Charles Steele VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Benjamin%20Charles%20Steele%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R658bfb0db8c149c6b0e8f1a8c0acba5c"/>
-    <x:sheet name="Outpatient Score" sheetId="2" r:id="R0999c94a10c044158b104493a60ccb42"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R2e27eeb1eccb4560976c91db5e015f94"/>
+    <x:sheet name="Outpatient Score" sheetId="2" r:id="Ra46dcc5732304ef1bb228591864981cf"/>
   </x:sheets>
 </x:workbook>
 </file>
